--- a/Software/Regiser Descriptions/Pin Assignments.xlsx
+++ b/Software/Regiser Descriptions/Pin Assignments.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12800" yWindow="0" windowWidth="12800" windowHeight="15480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
   <si>
     <t>Read Operations</t>
   </si>
@@ -75,9 +75,6 @@
     <t>Counter</t>
   </si>
   <si>
-    <t>Pin 5</t>
-  </si>
-  <si>
     <t>Pin 7</t>
   </si>
   <si>
@@ -91,6 +88,66 @@
   </si>
   <si>
     <t>Pin 1-9</t>
+  </si>
+  <si>
+    <t>WS Home Switch</t>
+  </si>
+  <si>
+    <t>Pin5</t>
+  </si>
+  <si>
+    <t>Channel #</t>
+  </si>
+  <si>
+    <t>Pin 15</t>
+  </si>
+  <si>
+    <t>wire color</t>
+  </si>
+  <si>
+    <t>yellow/black</t>
+  </si>
+  <si>
+    <t>orange/black</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>black/white</t>
+  </si>
+  <si>
+    <t>purple</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>Limit Switch Return</t>
+  </si>
+  <si>
+    <t>Pin 4</t>
+  </si>
+  <si>
+    <t>GND</t>
+  </si>
+  <si>
+    <t>Solid Orange</t>
+  </si>
+  <si>
+    <t>Solid Yellow</t>
+  </si>
+  <si>
+    <t>Solid Green</t>
+  </si>
+  <si>
+    <t>See CA-FC10 Datasheet</t>
+  </si>
+  <si>
+    <t>Solid Teal</t>
   </si>
 </sst>
 </file>
@@ -176,12 +233,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -517,27 +577,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" customWidth="1"/>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18">
+    <row r="1" spans="1:12" ht="18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -547,57 +609,93 @@
       <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="D2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="K2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:12">
       <c r="A3" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="D3" s="3">
+        <v>19</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="3">
+        <v>17</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>19</v>
+      <c r="D4" s="3">
+        <v>18</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="H4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="K4" s="3">
+        <v>16</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -607,17 +705,25 @@
       <c r="C5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="H5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="K5" s="3">
+        <v>21</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -627,39 +733,90 @@
       <c r="C6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="K6" s="3">
+        <v>22</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="3" t="s">
+      <c r="I7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>15</v>
+      </c>
+      <c r="K7" s="3">
+        <v>23</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="3">
+        <v>20</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Software/Regiser Descriptions/Pin Assignments.xlsx
+++ b/Software/Regiser Descriptions/Pin Assignments.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
   <si>
     <t>Read Operations</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>Solid Teal</t>
+  </si>
+  <si>
+    <t>Pin 5</t>
   </si>
 </sst>
 </file>
@@ -580,7 +583,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -700,7 +703,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>16</v>

--- a/Software/Regiser Descriptions/Pin Assignments.xlsx
+++ b/Software/Regiser Descriptions/Pin Assignments.xlsx
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
-  <si>
-    <t>Read Operations</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
   <si>
     <t>G0</t>
   </si>
@@ -39,9 +36,6 @@
     <t>Measure WS</t>
   </si>
   <si>
-    <t>Write Opeatrions</t>
-  </si>
-  <si>
     <t>Pulse</t>
   </si>
   <si>
@@ -93,9 +87,6 @@
     <t>WS Home Switch</t>
   </si>
   <si>
-    <t>Pin5</t>
-  </si>
-  <si>
     <t>Channel #</t>
   </si>
   <si>
@@ -151,6 +142,27 @@
   </si>
   <si>
     <t>Pin 5</t>
+  </si>
+  <si>
+    <t>Inputs</t>
+  </si>
+  <si>
+    <t>Outputs</t>
+  </si>
+  <si>
+    <t>FIND NEW COLOR</t>
+  </si>
+  <si>
+    <t>Orange w/ Stripe</t>
+  </si>
+  <si>
+    <t>CT: Green w/ stripe</t>
+  </si>
+  <si>
+    <t>NEW COLOR</t>
+  </si>
+  <si>
+    <t>PIN 5</t>
   </si>
 </sst>
 </file>
@@ -205,7 +217,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -228,6 +240,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -236,7 +259,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -245,6 +268,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -580,242 +604,262 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" customWidth="1"/>
     <col min="6" max="6" width="13.5" customWidth="1"/>
     <col min="8" max="8" width="18.33203125" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18">
+    <row r="1" spans="1:13" ht="18">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="D2" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="K2" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3" s="3">
         <v>19</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K3" s="3">
         <v>17</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4" s="3">
         <v>18</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K4" s="3">
         <v>16</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
       <c r="H5" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K5" s="3">
         <v>21</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>28</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="M5" s="8"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
       <c r="E6" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K6" s="3">
         <v>22</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
       <c r="E7" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="K7" s="3">
         <v>23</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D8" s="3">
         <v>20</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>35</v>
-      </c>
       <c r="I8" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
